--- a/DungeonShooting_Godot/excel/ActivityMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityMaterial.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +103,7 @@
     <t>物体下坠回弹后的旋转速度衰减比例</t>
   </si>
   <si>
-    <t>动态开关碰撞器,在物体高度大于16时是否关闭碰撞检测</t>
+    <t>动态开关碰撞器,在物体高度大于32时是否关闭碰撞检测</t>
   </si>
   <si>
     <t>string</t>
@@ -147,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1089,24 +1102,24 @@
   <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.6272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.1272727272727" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.8727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.7545454545455" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.2545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6272727272727" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.8727272727273" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.7545454545455" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.7545454545455" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:12">
@@ -1467,7 +1480,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1484,7 +1497,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
